--- a/spot.xlsx
+++ b/spot.xlsx
@@ -19,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="747">
-  <si>
-    <t>spot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="849">
   <si>
     <t>weather</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -957,20 +949,6 @@
     <t>https://i.imgur.com/CnHhQIs.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>濱海邊疆區的水族館</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>採用如貝殼般獨特結構的水族館，擁有附設兒童遊樂設施的戶外區域。</t>
   </si>
   <si>
@@ -2464,20 +2442,6 @@
     <t>https://i2.kknews.cc/SIG=19kud79/5r83000501r0q4n0rp0n.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>維多利亞港</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>由於港闊水深，又屬天然良港，香港亦因此有「東方之珠」的美譽。 維多利亞港古稱尖沙咀洋面或中門；18世紀西方列強勢力進入中國時，被英國人相中有成為東亞地區優良港口的潛力，後來在鴉片戰爭後從清帝國中奪取香港，以維多利亞港為中心建設香港，並做為基地發展其遠東的海上貿易事業。事實上，維多利亞港一直影響香港歷史和文化，亦主導香港經濟和旅遊業發展，是香港成為國際大城市的關鍵之一。</t>
   </si>
   <si>
@@ -2575,6 +2539,328 @@
   </si>
   <si>
     <t>spot_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦始皇兵馬俑</t>
+  </si>
+  <si>
+    <t>Xi An</t>
+  </si>
+  <si>
+    <t>PARTLY_CLOUDY</t>
+  </si>
+  <si>
+    <t>秦始皇兵馬俑，又稱秦始皇陵兵馬俑、秦陵兵馬俑、秦兵馬俑，位於中國陝西省西安市臨潼區西陽村。 秦始皇陵建於公元前246年至公元前208年，歷時39年，是中國歷史上秦朝皇帝秦始皇的陵墓，也是中國第一個規模宏大、布局講究且保存完好的帝王陵寢，現存陵冢高76米，陵園布置仿秦都咸陽，分內外兩城，內城周長2.5公里，外城周長6.3公里。陵冢位於內城西南，坐西面東，放置棺槨和隨葬器物的地方，為秦始皇陵墓建築群的核心，目前尚未發掘完成。 據目前的考證，兵馬俑坑位於秦始皇陵封土以東約955.5米處，普遍認為兵馬俑位於秦始皇陵的外圍，有戍衛陵寢的含義，是秦始皇陵墓有機組成部分。1987年，秦始皇陵墓及兵馬俑坑被聯合國教科文組織列入《世界遺產名錄》。</t>
+  </si>
+  <si>
+    <t>Lintong District, Xi'an, Shaanxi, 中國710612</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/_ex99OQwoeLriNKLae3mbstvenjgFR5GSGKVYuhEWej97LZU8Nk_-kqHJvnG500XVxASKWhb3juR4qQib33rWdRTlvC7pWOOvC-gdHOKofp_TrZJJppPUl8anR_Mt2tZmO6dGGAUU-4353wXF8bK9UAPszqW7Ks53hhOpN59Cg1O=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>大雁塔</t>
+  </si>
+  <si>
+    <t>大雁塔，位於陝西省西安市雁塔區的大慈恩寺內，是一座7層方形佛塔。該塔是西安市內著名古蹟及標誌性建築，同時也是西安市市徽當中的主要組成部分。該塔始建於唐朝永徽三年，起初是玄奘為保存佛經而建造的塔，後曾因年久失修和戰亂而多次遭到損毀，至五代後唐年間才成為現在的造型。清朝康熙年間時大雁塔開始出現傾斜，直至1996年時傾斜程度甚至達到1米左右，此後經過保護才有所恢復。中華人民共和國成立後，大雁塔得到了專門保護。1963年，大雁塔被列為全國重點文物保護單位，2013年時作為「絲綢之路：長安-天山廊道的路網」的組成部分被列入世界文化遺產中。</t>
+  </si>
+  <si>
+    <t>中國陕西省西安市雁塔区小寨商业街慈恩路1号</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/fHY17oSqYA1yahKBo6-a9DD8mI08i4YyqBiaNF08ijJdoNnqXtFrNjDSgWm4mWr_5WjaHWdoMFeeDcC__nd0bxMUbrDMk9w2WFZuVetBv8cw8p04FJutoYZuhp_sBpKa72-CRQ25i9_8Rkl8k-pUKAnoWQ6-eRhaXfyF_svfgCLT=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>西安城牆</t>
+  </si>
+  <si>
+    <t>西安城牆是位於陝西省西安市城區的城牆。西安城牆自明朝初年在唐長安城皇城的基礎上建造起來，後來又經過多次修補，形成嚴密的防禦體系，是中國現存最完整的古城牆之一，與山西平遙城牆、湖北荊州城牆、遼寧興城城牆等並列為中國現存最完好的四座古城牆，也是規模最大的古城牆之一，周長13.74公里，城牆周圍有護城河環繞，是中世紀後期最著名的城垣建築之一。 1961年，西安城牆被中華人民共和國國務院公布為第一批全國重點文物保護單位之一。</t>
+  </si>
+  <si>
+    <t>中國西安市蓮湖區</t>
+  </si>
+  <si>
+    <t>https://t1.gstatic.com/images?q=tbn:ANd9GcRV58Vp4Yo2a1e_08n2gkY_PTNB124XprnsHuJ9Eken9FBGn0vw4_3WpXQ9mMKQtBmkSQp55ySk3dJfnR9TZHB4Pg</t>
+  </si>
+  <si>
+    <t>陝西曆史博物館</t>
+  </si>
+  <si>
+    <t>陝西歷史博物館是位於陝西省西安市雁塔區的一座博物館，坐落於小寨東路與翠華路路口、大雁塔的西北側。陝西歷史博物館從1983年開始籌建，1991年6月20日建成開放，是中國第一座擁有現代化設施的大型國家級博物館。</t>
+  </si>
+  <si>
+    <t>中國陕西省西安市雁塔区小寨商业街小寨东路91号</t>
+  </si>
+  <si>
+    <t>https://t1.gstatic.com/images?q=tbn:ANd9GcRtekhfknD6gF3pztDygSo3cYmGyPmv2zCfQvlUeAVnefl7_-nxDyYfzujeGAYgO0R_Rr_y7wQSL957s7OPmQJTbg</t>
+  </si>
+  <si>
+    <t>西安鐘樓</t>
+  </si>
+  <si>
+    <t>西安鐘樓建成於公元1384年，距今已有600餘年。它位於中國陝西省西安市的市中心，城內東西南北四條大街的交匯處。是中國古代遺留下來眾多鐘樓中形制最大、保存最完整的一座。</t>
+  </si>
+  <si>
+    <t>中國 Shaanxi, Xi'an, 碑林區鐘樓商圈</t>
+  </si>
+  <si>
+    <t>https://t1.gstatic.com/images?q=tbn:ANd9GcQnqRucOYfv3Ai5MCqGjuCjYax-u0CbdweWDn1ww2V1cRuwBUI9wnEjtC_xIqoyWryTQ3Onexgw3a264bpoiVz6iA</t>
+  </si>
+  <si>
+    <t>費蓮達火車站</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>弗林德斯街車站是澳大利亞城市墨爾本的一座火車站，位於弗林德斯街和斯旺斯通街的交叉點。弗林德斯街車站是墨爾本都市區交通網最繁忙的車站，也是澳大利亞最繁忙的車站。在2011/12財年，福林德斯街的平日日均客流量超過92,600人。弗林德斯街車站是澳大利亞城市的首個火車站，也是1920年代後期世界最繁忙的客運站。車站主建築竣工於1909年，是墨爾本地標之一。</t>
+  </si>
+  <si>
+    <t>Flinders St, Melbourne VIC 3000澳洲</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/1ATKNg18VkG2S1vEewBPIvFg1g3msMdA5ghxbhlJtY3pUO0d4LGfqqH4p_Wcu9np2gsG4DzXjmb0-_vwIwIAEGcovho-UQqDtAHQauV5dLFZWgkpe6znGErBiBgL3tOO77EZ44RHO16d-pFi0jaypG2UFGM-1x7Sxmltl1hK6N69=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>維多利亞市場</t>
+  </si>
+  <si>
+    <t>維多利亞市場，簡稱QVM，位於澳洲的墨爾本市Victoria St.及Elizabeth St.交界，佔地約7公頃，為南半球最大規模的露天市場，全球第三大規模的露天市場，亦是世界上著名旅遊景點之一。市場由1878年起開始運作至今，是唯一現存在墨爾本市中心內的19世紀市場，主要提供海鮮、肉類、蔬菜、生果等新鮮食品，並且設有雜貨區域，販賣各種廉價的衣服鞋襪及相關旅遊手信。市場逢星期一及星期三暫停營業，而在澳洲夏天期間則會舉辦夜市活動。2017年6月至9月27日，每個星期三晚上設冬季限定夜市。</t>
+  </si>
+  <si>
+    <t>Queen St, Melbourne VIC 3000澳洲</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/jjq67_5cfHFzc6jgDP_08xTX8UQrRPA9earBJEwOEIEUambxWTQfSaKduSBL6ZoVm2G0uh_r-pV62cAlxHbThmwTbkTCRrdfJMein3V9s5Xjz4Zujjyna1bhQ7JtBMgzoZ7_mWStTO09ZcR4w_YAcc2NthaRuS54cl6XxZ2wv46y=w696-h390-n-k-no</t>
+  </si>
+  <si>
+    <t>維多利亞國家美術館</t>
+  </si>
+  <si>
+    <t>維多利亞國家美術館是一座位於澳洲墨爾本的美術館。</t>
+  </si>
+  <si>
+    <t>180 St Kilda Rd, Melbourne VIC 3006澳洲</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/ZhZx-2Uev-t90sSqAYkJClUe0iqi8LSCv7xW1-LY4vs8cqAfWoV_I6KR4rwaIRVo0906AtY86YURvnkLHPqeFRxx7vWfPYe5KpNNHlfsKtwooTCw2lLYbVIpDk0UM6EWLvXs-ECsfzczxxbyym4ThK3DrqGBiic4fozf6mReIQPw=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>聯邦廣場</t>
+  </si>
+  <si>
+    <t>聯邦廣場是澳洲墨爾本的一個大型公共廣場，2002年10月正式啟用。廣場周圍布滿現代主義建築和多個設施，如旅客服務中心、維多利亞國家藝術館新館、室內表演廳、SBS媒體大樓、交通旅館、藝廊、餐廳和商店。Atrium連結弗林德斯街和亞拉河，外觀為鋼鐵和透明玻璃組成的幾何圖形，是廣場周圍的一座標誌性建築。建設工程花費了4.67億澳元，可同時容納一萬名遊客，每年都舉辦約500次集會。</t>
+  </si>
+  <si>
+    <t>Swanston St &amp; Flinders St, Melbourne VIC 3000澳洲</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/cKR7TjmVILt8rc_kCy8FWT_O3gWD4139brPYHu597EcLaGCcQQ-k2Jty0-bBtQp5Y4SnFUPQ3QCcXLNaUhrumxOHBTo8r781YkOP2iPBtEXGb0g4gjp9bTH9a5nttNBIooQ8kg-QZCePLoI1blgPM9ojkf4Ge-u5ZXu09wPT0luY=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>墨爾本皇家植物園</t>
+  </si>
+  <si>
+    <t>河邊景點，有許多原生植物和外來植物</t>
+  </si>
+  <si>
+    <t>Birdwood Ave, South Yarra VIC 3141澳洲</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/wN4aNshe5_6K2Lxi3uiKQvaWTdW-9wLQnu5BWWQyRSpgALd8HuyhKmdYvsYnB9z7jCimE1YVKD94XnFF2VizXyzbJxuz60uCzma62GTvTuAWpnNag7Cy6EVYPPRH5LIvcp2IrEDvQbDWs9dlsO4lVYKUsEH0gicLlxBbFc-q9cIv=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>雪梨歌劇院位於澳洲雪梨，是20世紀最具特色的建築之一，也是世界著名的表演藝術中心、雪梨市的標誌性建築。該劇院設計者為丹麥設計師約恩·烏松，建設工作從1959年開始，1973年大劇院正式落成。在2007年6月28日這棟建築被聯合國教科文組織評為世界文化遺產，從落成到列入僅間隔34年，為少數20世紀落成建築物列入世界遺產的例子。 雪梨歌劇院坐落在雪梨港的便利朗角，其特有的帆造型，加上作為背景的雪梨港灣大橋，與周圍景物相映成趣。每天都有數以千計的遊客前來觀賞這座建築。 雪梨歌劇院主要由兩個主廳、一些小型劇院、演出廳以及其他附屬設施組成。兩個大廳均位於比較大的帆型結構內，小演出廳則位於底部的基座內。其中最大的主廳是音樂廳，最多可容納2679人。設計的初衷是把這個最大的廳堂建造成為歌劇院，後來設計改動了，甚至已經完工的歌劇舞台被推倒重建。音樂廳內有一個巨大的管風琴，是由羅納德·沙普於1969年至1979年製造的。號稱是全世界最大的機械木連管風琴，由10,500根風管組成。 主廳中較小的一個才是歌劇院。由於當初是將較大的主廳設計為歌劇院，小廳被認為不太適合做大型的歌劇演出，舞台相對較小而且給樂隊的空間也不便於大型樂隊演奏。 其他附屬設施則包括戲劇院、影院以及攝影室。</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/proxy/_mzmWOvroNetL3y-AOVAiW10X0t1EbqQnKcEudOuuNCQaJRG1j4NGgQKuSlTLSX9vDUluRaheR1km-z7fQhf1MiJTTQphc6hnTd3op-vrthnCOAS54DSARiDHw-oxctkLX7wN00cEyO73wsub6FvSPpQo9DbMDT_vRySTEzu5R0-=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>邦代海灘</t>
+  </si>
+  <si>
+    <t>邦代海灘，又譯作邦迪海灘，是澳洲雪梨一個著名的海灘，四周為同名的「邦代海灘」區。海灘位於雪梨商業中心區以東約7公里。附近的地區包括邦代、北邦代和邦代匯等。Bondi的發音常被人誤以為是bon-dee，也因此有了「邦迪」的譯名，但其正確發音應該是bon-dye，也是雪梨當地常用譯名「邦代」的來源。</t>
+  </si>
+  <si>
+    <t>澳洲新南威爾斯州邦迪海灘邮政编码: 2026</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/H5l9X2DjNF-F6ok6ZplOgVrH8qxxqEezWMuxeBdOnK1buxm61L_BICuVs26AnEqrNkUAvSzOSvrQ-ur4kT9mPQoXrbJ0OYRyzXzY4HlkU_QsWtzt38xN8S5nyBK9Fiblb3Lq9ZlkTfOvkm1_eu85OK_g8M3Oz4FzeLOHlPZeDeFy=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>雪梨港灣大橋</t>
+  </si>
+  <si>
+    <t>雪梨海港大橋是澳洲雪梨的一座主要橋樑，橫跨雪梨港連接雪梨商業中心區與北岸。這座引人注目的橋樑與附近的雪梨歌劇院構成了雪梨最知名的景色之一。外形之相似使它得了「衣架」的外號。直到1967年為止，雪梨海港大橋都還是雪梨市中最高的建築。 雪梨海港大橋在新南威爾斯省公共工程處工程師約翰·布拉德菲爾德的指揮下，橋樑設計由英國米德爾斯伯勒的都門朗建築公司所建造，並於1932年完工。雪梨海港大橋最高處高於海平面134公尺，同時也是世界上第5長的拱橋。根據金氏世界紀錄，它也是世界上最高的鋼鐵拱橋，並曾是全球最寬的長跨距橋樑，直至2012年被加拿大大溫哥華地區的第二代曼港橋取代為止。</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/fukkSbvledyTsczaiJM0JHjh0aHOKTOfcVbEVpqyumNER1rxTV-4pZNu3j43jNoh_JgefCX1Jxe_UGNGLWq3-B0IXv1so4m1eNs5jsonYeZLtVx5is7QYZiV5UFb3IWzEX4XtkCiOhE1ijlxLrrU3GY4kTnRY9drJdZ2T8PJoEnk=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>達令港</t>
+  </si>
+  <si>
+    <t>達令港位於澳洲新南威爾斯州雪梨，為雪梨中央商業區西部城區的大型休閒與行人專用區。該區從雪梨華埠北起，沿著海扇灣兩岸，東臨國王街碼頭，西至派蒙城區。海扇灣是達令港的水路之一，北接傑克遜港。達令港和周遭地區由雪梨市地方政府區域獨立管轄，雪梨海岸管理局為新南威爾斯州政府的法定主管部門。達令港之另一譯名為情人港，雖然不為政府採用，但是可見於當地一些商業建築之路標中。 達令港是雪梨知名的旅遊景點，澳洲風情濃鬱，吸引著世界各地的遊客。雪梨水族館、澳大利亞國家海事博物館、電力博物館、索普水上運動中心等，為達令港增添魅力。2000年雪梨奧運會座落於此。區內也建造了有中國古典園林風格的誼園。</t>
+  </si>
+  <si>
+    <t>Sydney NSW 2000澳洲</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/WJoDhIhykd_P08ukxwZswwDywOiAqjQyMMVboShQJfsc3pPsO60CdPYcUY8inoRbRjRsGtNIoyZ8EFLn6uDv45Pwen9oq-T_IJfIJbTySrDW9KSdgVK8wxMDbEwilAk6Xrx6xxRAtFZi3TiKZtjcAuupDtnudTdtmI4dmM475u5y=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>雪梨皇家植物園</t>
+  </si>
+  <si>
+    <t>雪梨皇家植物園，位於澳洲新南威爾斯州，其西北端即雪梨歌劇院。 雪梨皇家植物園1816年建立，佔地30公頃，是雪梨的一個大型的植物公園，由禁苑基金會管理，全年開放，免費入場。</t>
+  </si>
+  <si>
+    <t>Mrs Macquaries Rd, Sydney NSW 2000澳洲</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/S_0mIgknMXhWcAsQDbDd5Pl8HILF5Amvr0YYozMTfA7Vg-br9bkxDnmlOVBE-jfG3oSC95GBmAb7a94WpL3FYikf53Y9qmtlkrlyz6KRF-H0dCDL1BhPZ1n8XNtDZVr9YzcnN1bKEsLVI3NUexb86FN_QaXuAbL4IwLqvJQQ6DMF=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>迪士尼樂園</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>迪士尼樂園又稱為加州迪士尼樂園、安納罕迪士尼樂園，是一座位於美國加州安納罕市的迪士尼主題樂園；因為是世界上第一個迪士尼樂園，所以也被迪士尼的粉絲稱為元祖迪士尼樂園。迪尼樂園離洛杉磯城中區大約有20分鐘的車程；於1955年開幕，距今已經有60年以上的歷史，從迪士尼樂園開幕開始就是世界上最受歡迎的主題樂園之一。它由迪士尼的總公司直接派人管理與營運，「加州迪士尼樂園」和「加州冒險樂園」一同成為加州迪士尼度假區中的兩個最主要遊樂設施。 加州迪士尼樂園是世界唯一由華特·迪士尼親手設計和創辦的迪士尼樂園，雖然是第二小的迪士尼度假區，卻擁有世界迪士尼樂園中最多的遊樂設施，同時不會讓人覺得擁擠，它的整體規劃和人潮動線構造地極其巧妙；而且加州迪士尼樂園的建築面積一直在不斷的變化，一開始為28公頃、後來不斷擴建，在2019年星球大戰：銀河邊緣建成後比美國神奇王國和日本東京迪士尼樂園的面積更大，為52.4公頃。加州迪士尼從2008年開始一直是世界上第二人數多的主題樂園，人數遠超第三名的東京迪士尼樂園以及是隔壁加州冒險樂園的三倍有餘 。</t>
+  </si>
+  <si>
+    <t>1313 Disneyland Dr, Anaheim, CA 92802美國</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/yN982iKsy4jb3LxUrPwD1aYvD3OupkE1t6whZWskWEuj_YLIh5uQE0uz8cnDk_RPd7dqHxE5Px4aQaoHz99seto_l96dHp00e6d1PXKLkidfzIhwJU5wxWhfyqcYmxYiMnSFxLXe4T63_-SpBzNJVB-7bnOV_5PxuTy1ZANIL_Z-=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>好萊塢環球影城</t>
+  </si>
+  <si>
+    <t>好萊塢環球影城是一個電影製片廠及主題樂園，位於美國加州洛杉磯縣的環球市。它是歷史悠久、著名且仍在使用的好萊塢電影製片廠之一。其官方的的行銷標題是「洛杉磯娛樂之都」，然而在暑假期間則經常以「洛杉磯最酷的地方」做為廣告標語。起初是為了提供遊客參觀真正的環球影城攝影棚和場景而設立。 在主題樂園之外，環球市包括有希爾頓酒店、喜來登酒店及度假村集團、 多廳電影院和好萊塢城市大道，內有數家商店和餐廳，還有五座塔音樂廣場。</t>
+  </si>
+  <si>
+    <t>100 Universal City Plaza, Universal City, CA 91608美國</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/proxy/k2NcSequMpg8PsxfSPVDkpijTm98XCzNqsENnjfyLWeUv7pSKytDLuZYvXgH8OnWqS84CsHy2SGfs5kGBkvzeVSea8Aiy9Zv2Nqg9VvSGKPesk4GkTcSnLE4nS-n8jP0m0XWdM7lrYNKzFWwjxehq1VnlGyVlqYGOU4EP56-9s9o=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>好萊塢標誌</t>
+  </si>
+  <si>
+    <t>好萊塢標誌，曾名好萊塢蘭標誌，位於美國加利福尼亞州洛杉磯，是當地地標，也是美國的重要文化象徵。它位於聖莫尼卡山脈好萊塢山的李山上，俯視洛杉磯的好萊塢區。 「好萊塢」一詞由九個45英尺高的白色大寫英文字母拼寫而成，全長45英尺。這一地標始創於1923年，原先是當地一個地產項目的廣告，但後來地位逐漸提升。好萊塢標誌曾經頻繁遭遇惡作劇和毀壞，但此後經過了修繕，安裝了安全系統以抵禦這類行為。非盈利組織「好萊塢標誌信託」對這一地標進行維護和推廣工作。 從地面看，山丘的地勢使好萊塢標誌呈波浪式，但在一定高度觀察，這些字母事實上是基本平行的。 好萊塢標誌在流行文化中頻繁出現，尤其是在電影和電視中頻繁作為好萊塢地區定場鏡頭的主要對象。世界上有許多與之形態類似的標誌。</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA 90068美國</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/4LzVAl5J5KaSD323TSCqxmjGyJFY5UUensRR1_bqeGE8OPSNaw7rsqbx74zpKtnURkosG67zNt85c6a6EGkP5OYpELxCUskNJjzrGAmusnuOlxw2BOGdAxtk4cl3a1KC43NP1KEEMbNyz-FTGXF2uHiSH15z7OoeJek7iXmKjohs=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>格里斐斯天文台</t>
+  </si>
+  <si>
+    <t>格里斐斯天文台是一個位於美國加州洛杉磯市的觀光景點。</t>
+  </si>
+  <si>
+    <t>2800 E Observatory Rd, Los Angeles, CA 90027美國</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/proxy/7QC9qEpDsxTdmpgJ-V07NXsIhlFRjz83AyDaWym_NzdBGVNFDvq0wT4gkWlGqfTK7M4BiwHSpNp0SX3YwZHAKQe7UsDVj3kBHmPniTWzqbSvvo6TJ61VOZXrUgNklLZOjvqGuwXdiW1FLHvyeNf57ty0fe7YODZQeLhr-Z85hiq6=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>聖莫尼卡碼頭</t>
+  </si>
+  <si>
+    <t>擁有遊樂設施和餐館的熱門地標</t>
+  </si>
+  <si>
+    <t>200 Santa Monica Pier, Santa Monica, CA 90401美國</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/9K6UZtKbnK99884wQXjt9fZBirGIL1RvYdJGQQeNbSNhyQ1E1fL9AcuMxHlN-qshiwNVKfk7oYqnk-7oE42YXZc8H_R5gHAdCQl7G5F3_AK2PoZJQOrmXKk48-6IV9ntX4apo1lRxJxVToE_nLwdxK8KY5Wmc9QUNX5RWGtW9NyB=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>百樂宮酒店</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>百樂宮酒店是位於美國內華達州天堂市賭城大道上的一間賭場酒店，由美高梅集團持有及營運。 酒店設計的靈感取材自義大利貝拉焦的科木湖渡假村，以其優雅和舒適的環境為賣點。百樂宮酒店其中一項最著名的特色項目為酒店門前的人工湖，人工湖面積達32,000平方米，並提供音樂噴泉表演，是旅客必到的景點之一。 酒店大堂的天花板是出自名師達魯·芝古利之手的《Fiori di Como》，由2,000朵手工吹製而成的玻璃花組成，面積約610平方米。另外，酒店亦設有兩間室內花園，分別是「Conservatory」及「Botanical Gardens」，種滿不同種類的花朵。 百樂宮酒店是由史提芬·永利所構思出來的，他於1993年收購了原址的杜尼斯賭場酒店，並由他經營的夢幻渡假村集團將其拆卸後重建成今天的百樂宮酒店。 百樂宮酒店另一項最著名的項目是太陽劇團的《O》舞台演出，是拉斯維加斯最著名的表演之一。 2019年10月16日，黑石房地產收入信託基金和美高梅國際酒店集團各佔95%和5%股份的合資企業以42.5億美元的價格收購百樂宮酒店，並將其以2.45億美元的初始年租金返租給美高梅旗下的一個賭場子公司</t>
+  </si>
+  <si>
+    <t>3600 S Las Vegas Blvd, Las Vegas, NV 89109美國</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/proxy/CMvcBwBpQAmRM-HGeQ4DhOmtUYufOdUV5YsMfuCgTeejA_RAizIa2_raqylYiXq3RvZxKhrfg9QZB7I7Hv-LYaB5Uyo5_j_Vq9-iG878wQtd9G0qpEpz1iucadDk2M2RLOa4Zf-Srx0D3pqeclFNTxnj2qo_AtJTaSkN0xVhrOXz=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>賭城大道</t>
+  </si>
+  <si>
+    <t>賭城大道是美國內華達州克拉克郡內南拉斯維加斯大道上長約4.2英里的一個路段。賭城大道並不在拉斯維加斯的城市範圍內，而是位於拉斯維加斯市界線以南、天堂市和溫徹斯特市的未收編城鎮內。賭城大道的大部分區段被指定為美國風景道路，夜間的賭城大道也被認定符合景觀道路的特色。許多世界上最大的飯店、賭場和度假村坐落於賭城大道兩旁，這些飯店總計提供超過62,000間客房。 賭城大道最顯著的特色之一是有著許多戲劇化的建築。大道旁林立著現代化的飯店、賭場、餐廳和住宅摩天大樓等，讓賭城大道成為世界上最受歡迎旅遊景點之一。</t>
+  </si>
+  <si>
+    <t>美國內華達州克拉克郡內南拉斯維加斯大道</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/proxy/gC_OaUycMbYatObff2QDtFCgYI-LQDrAxbbRRHtTbAOZ0nj9-9j0PoXDURUdYreV0psDQnEXd8wX-vKyCNakZxNNAVUVHzDdRxMNsdHcLjHOTuQCwQ_WwC1IZ2V0DC0E8zRBdwg-GQmmh-8wrwq-WEazegorbmisQqw22KDaHIMP=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>紅岩峽谷國家保護區</t>
+  </si>
+  <si>
+    <t>紅岩峽谷國家保護區是一個位於美國內華達州克拉克郡的保護區。</t>
+  </si>
+  <si>
+    <t>1000 Scenic Loop Dr, Las Vegas, NV 89161美國</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/SCCiqLGyxQAjVDuqFU4900donSSAo4kN6khE5SZ1e5MgEQk8dAfQ7tzvMTlDbxToBdHpqAFjztgU0lgcPOR6hvEQtu7wWP-VCOuhvq0sERHSHIhEMhdx-wQio94KPV4t_TVgATme5nQaqhdlixyVZj2qm7MuJr4Wvg_f50zwO-uY=w444-h303-n-k-no</t>
+  </si>
+  <si>
+    <t>幻景賭場度假村</t>
+  </si>
+  <si>
+    <t>提供餐廳和表演節目的豪華賭場飯店</t>
+  </si>
+  <si>
+    <t>3400 S Las Vegas Blvd, Las Vegas, NV 89109美國</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/5Tgu9r2xSG9WU4pgQRN0MnUEHifXtuRW0sB38JKSk4DdjT8o4HdlT8mnZuw2jxQ9d0yFKq4lyMArtXPHqYKWC6fKTnL2FKT3uOvizCtJyHY69PK0w7PXlvc-xwpiDd7n5Ntb-IMLlPKJf-6MY_3aVzFrQEUXLR-mpG6Zk-pzZsBr=w696-h390-n-k-no</t>
+  </si>
+  <si>
+    <t>霓虹博物館</t>
+  </si>
+  <si>
+    <t>提供導覽的拉斯維加斯復古招牌博物館</t>
+  </si>
+  <si>
+    <t>770 Las Vegas Blvd N, Las Vegas, NV 89101美國</t>
+  </si>
+  <si>
+    <t>https://t2.gstatic.com/images?q=tbn:ANd9GcQ_YVeL3hwN5rY0hNWSUToUzvw48ECT7dw_LDHt-14eIVXbbLORHXvunYrk7YZO2CEdqP1phlZmzvWsHxjj1MW-fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濱海邊疆區的水族館
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">維多利亞港
+</t>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2582,7 +2868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2654,21 +2940,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -2703,6 +2974,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70757A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Sans-serif"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2727,16 +3015,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2747,54 +3033,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3115,4907 +3436,4907 @@
   <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="23"/>
+    <col min="2" max="2" width="19" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16"/>
     <col min="5" max="5" width="16.25"/>
-    <col min="6" max="6" width="16.25" style="23"/>
-    <col min="7" max="7" width="70.375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="16"/>
+    <col min="7" max="7" width="70.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="34.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.200000000000003">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="53.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="66.599999999999994">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="53.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+      <c r="B5" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66.599999999999994">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
+      <c r="B6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+      <c r="D6" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66.599999999999994">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
+      <c r="D7" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.200000000000003">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
+      <c r="B8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
+      <c r="D8" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.200000000000003">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
+      <c r="B9" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
+      <c r="D9" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.200000000000003">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
+      <c r="D10" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
+      <c r="B11" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+      <c r="D11" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
+      <c r="B12" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
+      <c r="D12" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>-3</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="66.599999999999994">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
+      <c r="B13" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
+      <c r="D13" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>-3</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="66.599999999999994">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
+      <c r="B14" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>-3</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="40.200000000000003">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>64</v>
+      <c r="B15" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
+      <c r="D15" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <v>-3</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
+      <c r="D16" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>-3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="79.8">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
+      <c r="B17" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
+      <c r="D17" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="119.4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
+      <c r="B18" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
+      <c r="D18" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1">
         <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40.200000000000003">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
+      <c r="B19" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
+      <c r="D19" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
         <v>31</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40.200000000000003">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
+      <c r="B20" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1">
         <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="53.4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
+      <c r="B21" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>72</v>
+      <c r="D21" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1">
         <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.200000000000003">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
+      <c r="B22" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
+      <c r="D22" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="66.599999999999994">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>96</v>
+      <c r="B23" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
+      <c r="D23" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1">
         <v>31</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="66.599999999999994">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
+      <c r="B24" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
+      <c r="D24" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="66.599999999999994">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>104</v>
+      <c r="B25" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
+      <c r="D25" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1">
         <v>31</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="66.599999999999994">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
+      <c r="B26" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
+      <c r="D26" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1">
         <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="79.8">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>112</v>
+      <c r="B27" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>113</v>
+      <c r="D27" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1">
         <v>31</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="53.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>117</v>
+      <c r="B28" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>113</v>
+      <c r="D28" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1">
         <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="53.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>121</v>
+      <c r="B29" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>113</v>
+      <c r="D29" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="66.599999999999994">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>125</v>
+      <c r="B30" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>113</v>
+      <c r="D30" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1">
         <v>31</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="93">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>129</v>
+      <c r="B31" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>113</v>
+      <c r="D31" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1">
         <v>31</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="79.8">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>133</v>
+      <c r="B32" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C32">
         <v>7</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>134</v>
+      <c r="D32" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F32" s="1">
         <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>139</v>
+      <c r="B33" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>134</v>
+      <c r="D33" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33" s="1">
         <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="40.200000000000003">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>143</v>
+      <c r="B34" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>134</v>
+      <c r="D34" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1">
         <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="53.4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>147</v>
+      <c r="B35" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>134</v>
+      <c r="D35" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1">
         <v>30</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="40.200000000000003">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
+      <c r="B36" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>134</v>
+      <c r="D36" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1">
         <v>30</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="53.4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>154</v>
+      <c r="B37" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>155</v>
+      <c r="D37" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1">
         <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="40.200000000000003">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>159</v>
+      <c r="B38" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C38">
         <v>8</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>155</v>
+      <c r="D38" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1">
         <v>26</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="93">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>163</v>
+      <c r="B39" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>155</v>
+      <c r="D39" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1">
         <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="53.4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>167</v>
+      <c r="B40" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>155</v>
+      <c r="D40" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1">
         <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="79.8">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>171</v>
+      <c r="B41" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>155</v>
+      <c r="D41" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1">
         <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="79.8">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>175</v>
+      <c r="B42" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>176</v>
+      <c r="D42" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="1">
         <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="93">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>180</v>
+      <c r="B43" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="C43">
         <v>9</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>176</v>
+      <c r="D43" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43" s="1">
         <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="53.4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>184</v>
+      <c r="B44" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>176</v>
+      <c r="D44" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F44" s="1">
         <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="106.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>188</v>
+      <c r="B45" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C45">
         <v>9</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>176</v>
+      <c r="D45" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F45" s="1">
         <v>25</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="27">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>192</v>
+      <c r="B46" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>176</v>
+      <c r="D46" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F46" s="1">
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="119.4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>196</v>
+      <c r="B47" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>197</v>
+      <c r="D47" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="27">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>201</v>
+      <c r="B48" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>197</v>
+      <c r="D48" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="106.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>205</v>
+      <c r="B49" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>197</v>
+      <c r="D49" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="40.200000000000003">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>209</v>
+      <c r="B50" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>197</v>
+      <c r="D50" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="53.4">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>213</v>
+      <c r="B51" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>197</v>
+      <c r="D51" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F51" s="1">
         <v>20</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="106.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>217</v>
+      <c r="B52" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="C52">
         <v>11</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>744</v>
+      <c r="D52" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F52" s="1">
         <v>-3</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="53.4">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>222</v>
+      <c r="B53" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>744</v>
+      <c r="D53" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F53" s="1">
         <v>-3</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="53.4">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>226</v>
+      <c r="B54" s="19" t="s">
+        <v>845</v>
       </c>
       <c r="C54">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>744</v>
+      <c r="D54" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F54" s="1">
         <v>-3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="40.200000000000003">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>230</v>
+      <c r="B55" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="C55">
         <v>11</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>744</v>
+      <c r="D55" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F55" s="1">
         <v>-3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="40.200000000000003">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>234</v>
+      <c r="B56" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="C56">
         <v>11</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>744</v>
+      <c r="D56" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F56" s="1">
         <v>-3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="53.4">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>238</v>
+      <c r="B57" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="C57">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>744</v>
+      <c r="D57" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F57" s="1">
         <v>-7</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="40.200000000000003">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>243</v>
+      <c r="B58" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="C58">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>744</v>
+      <c r="D58" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F58" s="1">
         <v>-7</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="40.200000000000003">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>247</v>
+      <c r="B59" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>744</v>
+      <c r="D59" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F59" s="1">
         <v>-7</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="132.6">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>251</v>
+      <c r="B60" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="C60">
         <v>12</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>744</v>
+      <c r="D60" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F60" s="1">
         <v>-7</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="40.200000000000003">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>255</v>
+      <c r="B61" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="C61">
         <v>12</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>744</v>
+      <c r="D61" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>740</v>
       </c>
       <c r="F61" s="1">
         <v>-7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="66.599999999999994">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>259</v>
+      <c r="B62" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>260</v>
+      <c r="D62" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F62" s="1">
         <v>29</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="66.599999999999994">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>264</v>
+      <c r="B63" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>260</v>
+      <c r="D63" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F63" s="1">
         <v>29</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="27">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>268</v>
+      <c r="B64" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="C64">
         <v>13</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>260</v>
+      <c r="D64" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F64" s="1">
         <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="53.4">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>272</v>
+      <c r="B65" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="C65">
         <v>13</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>260</v>
+      <c r="D65" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1">
         <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="119.4">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>276</v>
+      <c r="B66" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="C66">
         <v>13</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>260</v>
+      <c r="D66" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F66" s="1">
         <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="198.6">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>280</v>
+      <c r="B67" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="C67">
         <v>14</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>281</v>
+      <c r="D67" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F67" s="1">
         <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="66.599999999999994">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>285</v>
+      <c r="B68" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="C68">
         <v>14</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>281</v>
+      <c r="D68" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="1">
         <v>29</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="145.80000000000001">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>288</v>
+      <c r="B69" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="C69">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>281</v>
+      <c r="D69" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1">
         <v>29</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="66.599999999999994">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>292</v>
+      <c r="B70" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="C70">
         <v>14</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>281</v>
+      <c r="D70" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1">
         <v>29</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="27">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>296</v>
+      <c r="B71" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="C71">
         <v>14</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>281</v>
+      <c r="D71" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F71" s="1">
         <v>29</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="93">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>300</v>
+      <c r="B72" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>301</v>
+      <c r="D72" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F72" s="1">
         <v>19</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="40.200000000000003">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>306</v>
+      <c r="B73" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="C73">
         <v>15</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>301</v>
+      <c r="D73" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E73" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F73" s="1">
         <v>19</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="40.200000000000003">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>310</v>
+      <c r="B74" s="19" t="s">
+        <v>307</v>
       </c>
       <c r="C74">
         <v>15</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>301</v>
+      <c r="D74" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F74" s="1">
         <v>19</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="53.4">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>314</v>
+      <c r="B75" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="C75">
         <v>15</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>301</v>
+      <c r="D75" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F75" s="1">
         <v>19</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="53.4">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>318</v>
+      <c r="B76" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>301</v>
+      <c r="D76" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F76" s="1">
         <v>19</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="66.599999999999994">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>322</v>
+      <c r="B77" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="C77">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="7">
+        <v>20</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E77" t="s">
-        <v>302</v>
-      </c>
-      <c r="F77" s="11">
-        <v>20</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="40.200000000000003">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>327</v>
+      <c r="B78" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>323</v>
+      <c r="D78" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F78" s="1">
         <v>20</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="93">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>331</v>
+      <c r="B79" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="C79">
         <v>16</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>323</v>
+      <c r="D79" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
-      </c>
-      <c r="F79" s="11">
+        <v>299</v>
+      </c>
+      <c r="F79" s="7">
         <v>22</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>332</v>
+      <c r="G79" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="53.4">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>335</v>
+      <c r="B80" s="19" t="s">
+        <v>332</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>323</v>
+      <c r="D80" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F80" s="1">
         <v>23</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="66.599999999999994">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>339</v>
+      <c r="B81" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="C81">
         <v>16</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>323</v>
+      <c r="D81" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F81" s="1">
         <v>23</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="106.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>343</v>
+      <c r="B82" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="C82">
         <v>17</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>344</v>
+      <c r="D82" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F82" s="1">
         <v>24</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="106.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>348</v>
+      <c r="B83" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="C83">
         <v>17</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>344</v>
+      <c r="D83" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1">
         <v>23</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="53.4">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>352</v>
+      <c r="B84" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="C84">
         <v>17</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>344</v>
+      <c r="D84" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1">
         <v>23</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="79.8">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>356</v>
+      <c r="B85" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="C85">
         <v>17</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>344</v>
+      <c r="D85" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1">
         <v>22</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="106.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>360</v>
+      <c r="B86" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="C86">
         <v>17</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>344</v>
+      <c r="D86" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1">
         <v>23</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="93">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>364</v>
+      <c r="B87" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="C87">
         <v>18</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>365</v>
+      <c r="D87" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F87" s="1">
         <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="159">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>369</v>
+      <c r="B88" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="C88">
         <v>18</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>365</v>
+      <c r="D88" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="E88" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F88" s="1">
         <v>33</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="93">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>373</v>
+      <c r="B89" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="C89">
         <v>18</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>365</v>
+      <c r="D89" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="E89" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F89" s="1">
         <v>35</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="106.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>377</v>
+      <c r="B90" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="C90">
         <v>18</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>365</v>
+      <c r="D90" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F90" s="1">
         <v>34</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="185.4">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>381</v>
+      <c r="B91" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="C91">
         <v>18</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>365</v>
+      <c r="D91" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F91" s="1">
         <v>34</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="40.200000000000003">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>385</v>
+      <c r="B92" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="C92">
         <v>19</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>386</v>
+      <c r="D92" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F92" s="1">
         <v>28</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="53.4">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>390</v>
+      <c r="B93" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="C93">
         <v>19</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>386</v>
+      <c r="D93" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F93" s="1">
         <v>28</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="79.8">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>394</v>
+      <c r="B94" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="C94">
         <v>19</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>386</v>
+      <c r="D94" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1">
         <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="40.200000000000003">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>398</v>
+      <c r="B95" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="C95">
         <v>19</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>386</v>
+      <c r="D95" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1">
         <v>27</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="40.200000000000003">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>402</v>
+      <c r="B96" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="C96">
         <v>19</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>386</v>
+      <c r="D96" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1">
         <v>27</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="79.8">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>406</v>
+      <c r="B97" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="C97">
         <v>20</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>407</v>
+      <c r="D97" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F97" s="1">
         <v>-2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="66.599999999999994">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>411</v>
+      <c r="B98" s="19" t="s">
+        <v>408</v>
       </c>
       <c r="C98">
         <v>20</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>407</v>
+      <c r="D98" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F98" s="1">
         <v>-3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="53.4">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>415</v>
+      <c r="B99" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="C99">
         <v>20</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>407</v>
+      <c r="D99" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="E99" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="106.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>419</v>
+      <c r="B100" s="19" t="s">
+        <v>416</v>
       </c>
       <c r="C100">
         <v>20</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>407</v>
+      <c r="D100" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F100" s="1">
         <v>-3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="93">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>423</v>
+      <c r="B101" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="C101">
         <v>20</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>407</v>
+      <c r="D101" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F101" s="1">
         <v>-1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="53.4">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>427</v>
+      <c r="B102" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="C102">
         <v>21</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>428</v>
+      <c r="D102" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="E102" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="40.200000000000003">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>433</v>
+      <c r="B103" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="C103">
         <v>21</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>428</v>
+      <c r="D103" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="E103" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F103" s="1">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="53.4">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>437</v>
+      <c r="B104" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="C104">
         <v>21</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>428</v>
+      <c r="D104" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="E104" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F104" s="1">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="79.8">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>441</v>
+      <c r="B105" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="C105">
         <v>21</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>428</v>
+      <c r="D105" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F105" s="1">
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="66.599999999999994">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>445</v>
+      <c r="B106" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="C106">
         <v>21</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>428</v>
+      <c r="D106" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="79.8">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>449</v>
+      <c r="B107" s="19" t="s">
+        <v>446</v>
       </c>
       <c r="C107">
         <v>22</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>450</v>
+      <c r="D107" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="53.4">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>454</v>
+      <c r="B108" s="19" t="s">
+        <v>451</v>
       </c>
       <c r="C108">
         <v>22</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>450</v>
+      <c r="D108" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="66.599999999999994">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>458</v>
+      <c r="B109" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="C109">
         <v>22</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>450</v>
+      <c r="D109" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="E109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="79.8">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>462</v>
+      <c r="B110" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="C110">
         <v>22</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>450</v>
+      <c r="D110" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="53.4">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>466</v>
+      <c r="B111" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="C111">
         <v>22</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>450</v>
+      <c r="D111" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="E111" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="79.8">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>470</v>
+      <c r="B112" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="C112">
         <v>23</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>471</v>
+      <c r="D112" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="E112" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="53.4">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>475</v>
+      <c r="B113" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="C113">
         <v>23</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>471</v>
+      <c r="D113" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F113" s="1">
         <v>5</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="66.599999999999994">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>479</v>
+      <c r="B114" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="C114">
         <v>23</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>471</v>
+      <c r="D114" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="E114" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="106.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>483</v>
+      <c r="B115" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="C115">
         <v>23</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>471</v>
+      <c r="D115" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F115" s="1">
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="93">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>487</v>
+      <c r="B116" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="C116">
         <v>23</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>471</v>
+      <c r="D116" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="E116" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="79.8">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>491</v>
+      <c r="B117" s="19" t="s">
+        <v>488</v>
       </c>
       <c r="C117">
         <v>24</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>492</v>
+      <c r="D117" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F117" s="1">
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="27">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>496</v>
+      <c r="B118" s="19" t="s">
+        <v>493</v>
       </c>
       <c r="C118">
         <v>24</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>492</v>
+      <c r="D118" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F118" s="1">
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="27">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>500</v>
+      <c r="B119" s="19" t="s">
+        <v>497</v>
       </c>
       <c r="C119">
         <v>24</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>492</v>
+      <c r="D119" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F119" s="1">
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="40.200000000000003">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>504</v>
+      <c r="B120" s="19" t="s">
+        <v>501</v>
       </c>
       <c r="C120">
         <v>24</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>492</v>
+      <c r="D120" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F120" s="1">
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="79.8">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>508</v>
+      <c r="B121" s="19" t="s">
+        <v>505</v>
       </c>
       <c r="C121">
         <v>24</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>492</v>
+      <c r="D121" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F121" s="1">
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="93">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>512</v>
+      <c r="B122" s="19" t="s">
+        <v>509</v>
       </c>
       <c r="C122">
         <v>25</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>513</v>
+      <c r="D122" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F122" s="1">
         <v>-1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="79.8">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>517</v>
+      <c r="B123" s="19" t="s">
+        <v>514</v>
       </c>
       <c r="C123">
         <v>25</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>513</v>
+      <c r="D123" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F123" s="1">
         <v>-1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="66.599999999999994">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>521</v>
+      <c r="B124" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="C124">
         <v>25</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>513</v>
+      <c r="D124" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F124" s="1">
         <v>-1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="53.4">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>525</v>
+      <c r="B125" s="19" t="s">
+        <v>522</v>
       </c>
       <c r="C125">
         <v>25</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>513</v>
+      <c r="D125" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F125" s="1">
         <v>-1</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="40.200000000000003">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>529</v>
+      <c r="B126" s="19" t="s">
+        <v>526</v>
       </c>
       <c r="C126">
         <v>25</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>513</v>
+      <c r="D126" s="25" t="s">
+        <v>510</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F126" s="1">
         <v>-1</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="83.4">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>533</v>
+      <c r="B127" s="23" t="s">
+        <v>530</v>
       </c>
       <c r="C127">
         <v>26</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="6">
+        <v>4</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="10">
-        <v>4</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="69.599999999999994">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>538</v>
+      <c r="B128" s="23" t="s">
+        <v>535</v>
       </c>
       <c r="C128">
         <v>26</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>534</v>
+      <c r="D128" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="10">
+        <v>7</v>
+      </c>
+      <c r="F128" s="6">
         <v>4</v>
       </c>
-      <c r="G128" s="16" t="s">
-        <v>539</v>
+      <c r="G128" s="11" t="s">
+        <v>536</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="55.8">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>542</v>
+      <c r="B129" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="C129">
         <v>26</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>534</v>
+      <c r="D129" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="10">
+        <v>7</v>
+      </c>
+      <c r="F129" s="6">
         <v>4</v>
       </c>
-      <c r="G129" s="16" t="s">
-        <v>543</v>
+      <c r="G129" s="11" t="s">
+        <v>540</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="69.599999999999994">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>546</v>
+      <c r="B130" s="22" t="s">
+        <v>543</v>
       </c>
       <c r="C130">
         <v>26</v>
       </c>
-      <c r="D130" s="17" t="s">
-        <v>534</v>
+      <c r="D130" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="10">
+        <v>7</v>
+      </c>
+      <c r="F130" s="6">
         <v>4</v>
       </c>
-      <c r="G130" s="18" t="s">
-        <v>547</v>
+      <c r="G130" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="69.599999999999994">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>550</v>
+      <c r="B131" s="22" t="s">
+        <v>547</v>
       </c>
       <c r="C131">
         <v>26</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>534</v>
+      <c r="D131" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="10">
+        <v>7</v>
+      </c>
+      <c r="F131" s="6">
         <v>4</v>
       </c>
-      <c r="G131" s="18" t="s">
-        <v>551</v>
+      <c r="G131" s="12" t="s">
+        <v>548</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="79.8">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>554</v>
+      <c r="B132" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="C132">
         <v>27</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E132" t="s">
+        <v>426</v>
+      </c>
+      <c r="F132" s="6">
+        <v>7</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="E132" t="s">
-        <v>429</v>
-      </c>
-      <c r="F132" s="10">
-        <v>7</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="132.6">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E133" t="s">
+        <v>426</v>
+      </c>
+      <c r="F133" s="6">
+        <v>7</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="E133" t="s">
-        <v>429</v>
-      </c>
-      <c r="F133" s="10">
-        <v>7</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="119.4">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E134" t="s">
+        <v>426</v>
+      </c>
+      <c r="F134" s="6">
+        <v>7</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="E134" t="s">
-        <v>429</v>
-      </c>
-      <c r="F134" s="10">
-        <v>7</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="40.200000000000003">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E135" t="s">
+        <v>426</v>
+      </c>
+      <c r="F135" s="6">
+        <v>4</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="E135" t="s">
-        <v>429</v>
-      </c>
-      <c r="F135" s="10">
-        <v>4</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="66.599999999999994">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E136" t="s">
+        <v>426</v>
+      </c>
+      <c r="F136" s="6">
+        <v>6</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="E136" t="s">
-        <v>429</v>
-      </c>
-      <c r="F136" s="10">
-        <v>6</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="159">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>575</v>
+      <c r="B137" s="22" t="s">
+        <v>572</v>
       </c>
       <c r="C137">
         <v>28</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="6">
+        <v>7</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="E137" t="s">
-        <v>31</v>
-      </c>
-      <c r="F137" s="10">
-        <v>7</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="53.4">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>580</v>
+      <c r="B138" s="22" t="s">
+        <v>577</v>
       </c>
       <c r="C138">
         <v>28</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>576</v>
+      <c r="D138" s="29" t="s">
+        <v>573</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
-      </c>
-      <c r="F138" s="10">
+        <v>29</v>
+      </c>
+      <c r="F138" s="6">
         <v>6</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="28.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>584</v>
+      <c r="B139" s="22" t="s">
+        <v>581</v>
       </c>
       <c r="C139">
         <v>28</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>576</v>
+      <c r="D139" s="29" t="s">
+        <v>573</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
-      </c>
-      <c r="F139" s="10">
+        <v>29</v>
+      </c>
+      <c r="F139" s="6">
         <v>7</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>588</v>
+      <c r="B140" s="22" t="s">
+        <v>585</v>
       </c>
       <c r="C140">
         <v>28</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>576</v>
+      <c r="D140" s="29" t="s">
+        <v>573</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
-      </c>
-      <c r="F140" s="10">
+        <v>29</v>
+      </c>
+      <c r="F140" s="6">
         <v>7</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H140" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="53.4">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>592</v>
+      <c r="B141" s="22" t="s">
+        <v>589</v>
       </c>
       <c r="C141">
         <v>28</v>
       </c>
-      <c r="D141" s="17" t="s">
-        <v>576</v>
+      <c r="D141" s="29" t="s">
+        <v>573</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
-      </c>
-      <c r="F141" s="10">
+        <v>29</v>
+      </c>
+      <c r="F141" s="6">
         <v>7</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="66.599999999999994">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>596</v>
+      <c r="B142" s="22" t="s">
+        <v>593</v>
       </c>
       <c r="C142">
         <v>29</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="6">
+        <v>7</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="E142" t="s">
-        <v>31</v>
-      </c>
-      <c r="F142" s="10">
-        <v>7</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="42">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>601</v>
+      <c r="B143" s="22" t="s">
+        <v>598</v>
       </c>
       <c r="C143">
         <v>29</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>597</v>
+      <c r="D143" s="29" t="s">
+        <v>594</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" s="10">
+        <v>29</v>
+      </c>
+      <c r="F143" s="6">
         <v>7</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H143" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="69.599999999999994">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>605</v>
+      <c r="B144" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="C144">
         <v>29</v>
       </c>
-      <c r="D144" s="17" t="s">
-        <v>597</v>
+      <c r="D144" s="29" t="s">
+        <v>594</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
-      </c>
-      <c r="F144" s="10">
+        <v>29</v>
+      </c>
+      <c r="F144" s="6">
         <v>7</v>
       </c>
-      <c r="G144" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>608</v>
+      <c r="G144" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="40.200000000000003">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>609</v>
+      <c r="B145" s="22" t="s">
+        <v>606</v>
       </c>
       <c r="C145">
         <v>29</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>597</v>
+      <c r="D145" s="29" t="s">
+        <v>594</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
-      </c>
-      <c r="F145" s="10">
+        <v>29</v>
+      </c>
+      <c r="F145" s="6">
         <v>7</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="53.4">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>613</v>
+      <c r="B146" s="22" t="s">
+        <v>610</v>
       </c>
       <c r="C146">
         <v>29</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>597</v>
+      <c r="D146" s="29" t="s">
+        <v>594</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
-      </c>
-      <c r="F146" s="10">
+        <v>29</v>
+      </c>
+      <c r="F146" s="6">
         <v>7</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H146" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="93">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>617</v>
+      <c r="B147" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="C147">
         <v>30</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="6">
+        <v>7</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="10">
-        <v>7</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="53.4">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>622</v>
+      <c r="B148" s="22" t="s">
+        <v>619</v>
       </c>
       <c r="C148">
         <v>30</v>
       </c>
-      <c r="D148" s="17" t="s">
-        <v>618</v>
+      <c r="D148" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="10">
         <v>7</v>
       </c>
+      <c r="F148" s="6">
+        <v>7</v>
+      </c>
       <c r="G148" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="53.4">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>626</v>
+      <c r="B149" s="22" t="s">
+        <v>623</v>
       </c>
       <c r="C149">
         <v>30</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>618</v>
+      <c r="D149" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="10">
         <v>7</v>
       </c>
+      <c r="F149" s="6">
+        <v>7</v>
+      </c>
       <c r="G149" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H149" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="40.200000000000003">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>630</v>
+      <c r="B150" s="22" t="s">
+        <v>627</v>
       </c>
       <c r="C150">
         <v>30</v>
       </c>
-      <c r="D150" s="17" t="s">
-        <v>618</v>
+      <c r="D150" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="10">
         <v>7</v>
       </c>
+      <c r="F150" s="6">
+        <v>7</v>
+      </c>
       <c r="G150" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="53.4">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>634</v>
+      <c r="B151" s="22" t="s">
+        <v>631</v>
       </c>
       <c r="C151">
         <v>30</v>
       </c>
-      <c r="D151" s="17" t="s">
-        <v>618</v>
+      <c r="D151" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="10">
         <v>7</v>
       </c>
+      <c r="F151" s="6">
+        <v>7</v>
+      </c>
       <c r="G151" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="66.599999999999994">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>638</v>
+      <c r="B152" s="22" t="s">
+        <v>635</v>
       </c>
       <c r="C152">
         <v>31</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="6">
+        <v>7</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="10">
-        <v>7</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="53.4">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>643</v>
+      <c r="B153" s="22" t="s">
+        <v>640</v>
       </c>
       <c r="C153">
         <v>31</v>
       </c>
-      <c r="D153" s="17" t="s">
-        <v>639</v>
+      <c r="D153" s="29" t="s">
+        <v>636</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="10">
         <v>7</v>
       </c>
+      <c r="F153" s="6">
+        <v>7</v>
+      </c>
       <c r="G153" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="H153" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="53.4">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>647</v>
+      <c r="B154" s="22" t="s">
+        <v>644</v>
       </c>
       <c r="C154">
         <v>31</v>
       </c>
-      <c r="D154" s="17" t="s">
-        <v>639</v>
+      <c r="D154" s="29" t="s">
+        <v>636</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="10">
         <v>7</v>
       </c>
+      <c r="F154" s="6">
+        <v>7</v>
+      </c>
       <c r="G154" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="53.4">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>651</v>
+      <c r="B155" s="22" t="s">
+        <v>648</v>
       </c>
       <c r="C155">
         <v>31</v>
       </c>
-      <c r="D155" s="17" t="s">
-        <v>639</v>
+      <c r="D155" s="29" t="s">
+        <v>636</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="10">
         <v>7</v>
       </c>
+      <c r="F155" s="6">
+        <v>7</v>
+      </c>
       <c r="G155" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="53.4">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>655</v>
+      <c r="B156" s="22" t="s">
+        <v>652</v>
       </c>
       <c r="C156">
         <v>31</v>
       </c>
-      <c r="D156" s="17" t="s">
-        <v>639</v>
+      <c r="D156" s="29" t="s">
+        <v>636</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="10">
         <v>7</v>
       </c>
+      <c r="F156" s="6">
+        <v>7</v>
+      </c>
       <c r="G156" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="66.599999999999994">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>659</v>
+      <c r="B157" s="22" t="s">
+        <v>656</v>
       </c>
       <c r="C157">
         <v>32</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D157" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="6">
+        <v>7</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="10">
-        <v>7</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="53.4">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>664</v>
+      <c r="B158" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="C158">
         <v>32</v>
       </c>
-      <c r="D158" s="17" t="s">
-        <v>660</v>
+      <c r="D158" s="29" t="s">
+        <v>657</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="10">
         <v>7</v>
       </c>
+      <c r="F158" s="6">
+        <v>7</v>
+      </c>
       <c r="G158" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="27">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>668</v>
+      <c r="B159" s="22" t="s">
+        <v>665</v>
       </c>
       <c r="C159">
         <v>32</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>660</v>
+      <c r="D159" s="29" t="s">
+        <v>657</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="10">
         <v>7</v>
       </c>
+      <c r="F159" s="6">
+        <v>7</v>
+      </c>
       <c r="G159" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="132.6">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>672</v>
+      <c r="B160" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="C160">
         <v>32</v>
       </c>
-      <c r="D160" s="17" t="s">
-        <v>660</v>
+      <c r="D160" s="29" t="s">
+        <v>657</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="10">
         <v>7</v>
       </c>
+      <c r="F160" s="6">
+        <v>7</v>
+      </c>
       <c r="G160" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="53.4">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>676</v>
+      <c r="B161" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="C161">
         <v>32</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>660</v>
+      <c r="D161" s="29" t="s">
+        <v>657</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="10">
         <v>7</v>
       </c>
+      <c r="F161" s="6">
+        <v>7</v>
+      </c>
       <c r="G161" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="66.599999999999994">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>680</v>
+      <c r="B162" s="22" t="s">
+        <v>677</v>
       </c>
       <c r="C162">
         <v>33</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="6">
+        <v>10</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="10">
-        <v>10</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="40.200000000000003">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>685</v>
+      <c r="B163" s="22" t="s">
+        <v>682</v>
       </c>
       <c r="C163">
         <v>33</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>681</v>
+      <c r="D163" s="29" t="s">
+        <v>678</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="10">
+        <v>7</v>
+      </c>
+      <c r="F163" s="6">
         <v>11</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="66.599999999999994">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>689</v>
+      <c r="B164" s="22" t="s">
+        <v>686</v>
       </c>
       <c r="C164">
         <v>33</v>
       </c>
-      <c r="D164" s="17" t="s">
-        <v>681</v>
+      <c r="D164" s="29" t="s">
+        <v>678</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="10">
+        <v>7</v>
+      </c>
+      <c r="F164" s="6">
         <v>11</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="198.6">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>693</v>
+      <c r="B165" s="22" t="s">
+        <v>690</v>
       </c>
       <c r="C165">
         <v>33</v>
       </c>
-      <c r="D165" s="17" t="s">
-        <v>681</v>
+      <c r="D165" s="29" t="s">
+        <v>678</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="10">
+        <v>7</v>
+      </c>
+      <c r="F165" s="6">
         <v>11</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="53.4">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>697</v>
+      <c r="B166" s="22" t="s">
+        <v>694</v>
       </c>
       <c r="C166">
         <v>33</v>
       </c>
-      <c r="D166" s="17" t="s">
-        <v>681</v>
+      <c r="D166" s="29" t="s">
+        <v>678</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="10">
+        <v>7</v>
+      </c>
+      <c r="F166" s="6">
         <v>11</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="79.8">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>701</v>
+      <c r="B167" s="22" t="s">
+        <v>698</v>
       </c>
       <c r="C167">
         <v>34</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="6">
+        <v>7</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I167" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="10">
-        <v>7</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="106.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>706</v>
+      <c r="B168" s="22" t="s">
+        <v>703</v>
       </c>
       <c r="C168">
         <v>34</v>
       </c>
-      <c r="D168" s="17" t="s">
-        <v>702</v>
+      <c r="D168" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="10">
         <v>7</v>
       </c>
+      <c r="F168" s="6">
+        <v>7</v>
+      </c>
       <c r="G168" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="172.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>710</v>
+      <c r="B169" s="22" t="s">
+        <v>707</v>
       </c>
       <c r="C169">
         <v>34</v>
       </c>
-      <c r="D169" s="17" t="s">
-        <v>702</v>
+      <c r="D169" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="10">
         <v>7</v>
       </c>
+      <c r="F169" s="6">
+        <v>7</v>
+      </c>
       <c r="G169" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="79.8">
@@ -8023,330 +8344,968 @@
         <v>169</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>714</v>
+        <v>846</v>
       </c>
       <c r="C170">
         <v>34</v>
       </c>
-      <c r="D170" s="17" t="s">
-        <v>702</v>
+      <c r="D170" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="10">
         <v>7</v>
       </c>
+      <c r="F170" s="6">
+        <v>7</v>
+      </c>
       <c r="G170" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="66.599999999999994">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>718</v>
+      <c r="B171" s="22" t="s">
+        <v>714</v>
       </c>
       <c r="C171">
         <v>34</v>
       </c>
-      <c r="D171" s="17" t="s">
-        <v>702</v>
+      <c r="D171" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="10">
         <v>7</v>
       </c>
+      <c r="F171" s="6">
+        <v>7</v>
+      </c>
       <c r="G171" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="40.200000000000003">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>722</v>
+      <c r="B172" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="C172">
         <v>35</v>
       </c>
-      <c r="D172" s="17" t="s">
-        <v>723</v>
+      <c r="D172" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="10">
+        <v>7</v>
+      </c>
+      <c r="F172" s="6">
         <v>11</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="53.4">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="10" t="s">
-        <v>727</v>
+      <c r="B173" s="22" t="s">
+        <v>723</v>
       </c>
       <c r="C173">
         <v>35</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>723</v>
+      <c r="D173" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="10">
+        <v>7</v>
+      </c>
+      <c r="F173" s="6">
         <v>11</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="53.4">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>731</v>
+      <c r="B174" s="22" t="s">
+        <v>727</v>
       </c>
       <c r="C174">
         <v>35</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>723</v>
+      <c r="D174" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="10">
+        <v>7</v>
+      </c>
+      <c r="F174" s="6">
         <v>11</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="27">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="10" t="s">
-        <v>735</v>
+      <c r="B175" s="22" t="s">
+        <v>731</v>
       </c>
       <c r="C175">
         <v>35</v>
       </c>
-      <c r="D175" s="17" t="s">
-        <v>723</v>
+      <c r="D175" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="10">
+        <v>7</v>
+      </c>
+      <c r="F175" s="6">
         <v>11</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>738</v>
+        <v>733</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="40.200000000000003">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>739</v>
+      <c r="B176" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="C176">
         <v>35</v>
       </c>
-      <c r="D176" s="17" t="s">
-        <v>723</v>
+      <c r="D176" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="10">
+        <v>7</v>
+      </c>
+      <c r="F176" s="6">
         <v>11</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="177" spans="7:9">
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="7:9">
-      <c r="G178" s="1"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="7:9">
-      <c r="G179" s="1"/>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="7:9">
-      <c r="G180" s="1"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="7:9">
-      <c r="G181" s="1"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="7:9">
-      <c r="G182" s="1"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="7:9">
-      <c r="G183" s="1"/>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="7:9">
-      <c r="G184" s="1"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="7:9">
-      <c r="G185" s="1"/>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="7:9">
-      <c r="G186" s="1"/>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="7:9">
-      <c r="G187" s="1"/>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="7:9">
-      <c r="G188" s="1"/>
-      <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="7:9">
-      <c r="G189" s="1"/>
-      <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="7:9">
-      <c r="G190" s="1"/>
-      <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="7:9">
-      <c r="G191" s="1"/>
-      <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="7:9">
-      <c r="G192" s="1"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="7:9">
-      <c r="G193" s="1"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="7:9">
-      <c r="G194" s="1"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="7:9">
-      <c r="G195" s="1"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="7:9">
-      <c r="G196" s="1"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="7:9">
-      <c r="G197" s="1"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="7:9">
-      <c r="G198" s="1"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="7:9">
-      <c r="G199" s="1"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="7:9">
-      <c r="G200" s="1"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="7:9">
-      <c r="G201" s="1"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="7:9">
+        <v>736</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="132.6">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C177">
+        <v>36</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F177" s="32">
+        <v>4</v>
+      </c>
+      <c r="G177" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="H177" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="I177" s="35" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="119.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C178">
+        <v>36</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F178" s="32">
+        <v>4</v>
+      </c>
+      <c r="G178" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="H178" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="I178" s="35" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="93">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C179">
+        <v>36</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F179" s="32">
+        <v>4</v>
+      </c>
+      <c r="G179" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="H179" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="I179" s="35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="66.599999999999994">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C180">
+        <v>36</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F180" s="32">
+        <v>4</v>
+      </c>
+      <c r="G180" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="H180" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="I180" s="35" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="79.8">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="C181">
+        <v>36</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="F181" s="32">
+        <v>4</v>
+      </c>
+      <c r="G181" s="33" t="s">
+        <v>762</v>
+      </c>
+      <c r="H181" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="I181" s="35" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="132.6">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C182">
+        <v>37</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="E182" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="32">
+        <v>11</v>
+      </c>
+      <c r="G182" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="H182" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="I182" s="35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="106.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C183">
+        <v>37</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="E183" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="32">
+        <v>11</v>
+      </c>
+      <c r="G183" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="I183" s="35" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="119.4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C184">
+        <v>37</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="E184" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="32">
+        <v>11</v>
+      </c>
+      <c r="G184" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="H184" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="I184" s="35" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="132.6">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C185">
+        <v>37</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="E185" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="32">
+        <v>11</v>
+      </c>
+      <c r="G185" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="H185" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="I185" s="35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="119.4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C186">
+        <v>37</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="E186" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="32">
+        <v>11</v>
+      </c>
+      <c r="G186" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="H186" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="I186" s="35" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="211.8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C187">
+        <v>38</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F187" s="32">
+        <v>14</v>
+      </c>
+      <c r="G187" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="H187" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="I187" s="35" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="119.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="C188">
+        <v>38</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" s="32">
+        <v>14</v>
+      </c>
+      <c r="G188" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="I188" s="35" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="119.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="C189">
+        <v>38</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F189" s="32">
+        <v>14</v>
+      </c>
+      <c r="G189" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="H189" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="I189" s="35" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="119.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C190">
+        <v>38</v>
+      </c>
+      <c r="D190" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F190" s="32">
+        <v>14</v>
+      </c>
+      <c r="G190" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="H190" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="I190" s="35" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="119.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C191">
+        <v>38</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E191" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F191" s="32">
+        <v>14</v>
+      </c>
+      <c r="G191" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="H191" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="I191" s="35" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="198.6">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="C192">
+        <v>39</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E192" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="32">
+        <v>7</v>
+      </c>
+      <c r="G192" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="H192" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="I192" s="35" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="119.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C193">
+        <v>39</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E193" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="32">
+        <v>7</v>
+      </c>
+      <c r="G193" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="H193" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="I193" s="35" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="145.80000000000001">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="C194">
+        <v>39</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E194" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="32">
+        <v>7</v>
+      </c>
+      <c r="G194" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="H194" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="I194" s="35" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="119.4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="C195">
+        <v>39</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E195" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="32">
+        <v>7</v>
+      </c>
+      <c r="G195" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="H195" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="I195" s="35" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="119.4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="C196">
+        <v>39</v>
+      </c>
+      <c r="D196" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E196" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="32">
+        <v>7</v>
+      </c>
+      <c r="G196" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="H196" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="I196" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="185.4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="C197">
+        <v>40</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="E197" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F197" s="32">
+        <v>1</v>
+      </c>
+      <c r="G197" s="33" t="s">
+        <v>826</v>
+      </c>
+      <c r="H197" s="36" t="s">
+        <v>827</v>
+      </c>
+      <c r="I197" s="35" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="132.6">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="C198">
+        <v>40</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="E198" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F198" s="32">
+        <v>1</v>
+      </c>
+      <c r="G198" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="H198" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="I198" s="35" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="119.4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="C199">
+        <v>40</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="E199" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F199" s="32">
+        <v>1</v>
+      </c>
+      <c r="G199" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="H199" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="I199" s="35" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="106.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C200">
+        <v>40</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="E200" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F200" s="32">
+        <v>1</v>
+      </c>
+      <c r="G200" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="H200" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="I200" s="35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="66.599999999999994">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C201">
+        <v>40</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="E201" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F201" s="32">
+        <v>1</v>
+      </c>
+      <c r="G201" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="H201" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="I201" s="35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" s="18"/>
+      <c r="D202" s="24"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="7:9">
+    <row r="203" spans="1:9">
+      <c r="B203" s="18"/>
+      <c r="D203" s="24"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="7:9">
+    <row r="204" spans="1:9">
+      <c r="B204" s="18"/>
+      <c r="D204" s="24"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="7:9">
+    <row r="205" spans="1:9">
+      <c r="B205" s="18"/>
+      <c r="D205" s="24"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="7:9">
+    <row r="206" spans="1:9">
+      <c r="B206" s="18"/>
+      <c r="D206" s="24"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="7:9">
+    <row r="207" spans="1:9">
+      <c r="B207" s="18"/>
+      <c r="D207" s="24"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="7:9">
+    <row r="208" spans="1:9">
+      <c r="B208" s="18"/>
+      <c r="D208" s="24"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
     </row>
@@ -11744,11 +12703,36 @@
     <hyperlink ref="I174" r:id="rId177"/>
     <hyperlink ref="I175" r:id="rId178"/>
     <hyperlink ref="I176" r:id="rId179"/>
+    <hyperlink ref="I177" r:id="rId180"/>
+    <hyperlink ref="I178" r:id="rId181"/>
+    <hyperlink ref="I179" r:id="rId182"/>
+    <hyperlink ref="I180" r:id="rId183"/>
+    <hyperlink ref="I181" r:id="rId184"/>
+    <hyperlink ref="I182" r:id="rId185"/>
+    <hyperlink ref="I183" r:id="rId186"/>
+    <hyperlink ref="I184" r:id="rId187"/>
+    <hyperlink ref="I185" r:id="rId188"/>
+    <hyperlink ref="I186" r:id="rId189"/>
+    <hyperlink ref="I187" r:id="rId190"/>
+    <hyperlink ref="I188" r:id="rId191"/>
+    <hyperlink ref="I189" r:id="rId192"/>
+    <hyperlink ref="I190" r:id="rId193"/>
+    <hyperlink ref="I191" r:id="rId194"/>
+    <hyperlink ref="I192" r:id="rId195"/>
+    <hyperlink ref="I193" r:id="rId196"/>
+    <hyperlink ref="I194" r:id="rId197"/>
+    <hyperlink ref="I195" r:id="rId198"/>
+    <hyperlink ref="I196" r:id="rId199"/>
+    <hyperlink ref="I197" r:id="rId200"/>
+    <hyperlink ref="I198" r:id="rId201"/>
+    <hyperlink ref="I199" r:id="rId202"/>
+    <hyperlink ref="I200" r:id="rId203"/>
+    <hyperlink ref="I201" r:id="rId204"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId180"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId205"/>
   <tableParts count="1">
-    <tablePart r:id="rId181"/>
+    <tablePart r:id="rId206"/>
   </tableParts>
 </worksheet>
 </file>